--- a/dist/document/dest/2020/10/doctors/82.xlsx
+++ b/dist/document/dest/2020/10/doctors/82.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>681</v>
       </c>
-      <c r="C2" s="1">
-        <v>4906605</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>56</v>
       </c>
-      <c r="C3" s="1">
-        <v>480480</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>231</v>
       </c>
-      <c r="C4" s="1">
-        <v>575190</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>84</v>
       </c>
-      <c r="C5" s="1">
-        <v>90720</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>28</v>
       </c>
-      <c r="C6" s="1">
-        <v>98000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
-        <v>32200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>98</v>
       </c>
-      <c r="C8" s="1">
-        <v>1584660</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>82</v>
       </c>
-      <c r="C9" s="1">
-        <v>1279200</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>364</v>
       </c>
-      <c r="C10" s="1">
-        <v>5885880</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>51</v>
       </c>
-      <c r="C11" s="1">
-        <v>199920</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1">
-        <v>30000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>399</v>
       </c>
-      <c r="C13" s="1">
-        <v>1651860</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>789600</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>95200</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -559,7 +517,7 @@
         <v>2174</v>
       </c>
       <c r="C16" s="1">
-        <v>17699515</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/82.xlsx
+++ b/dist/document/dest/2020/10/doctors/82.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,127 +402,136 @@
         <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>681</v>
+        <v>336</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2420880</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Dagocti (Dutasteride 0.5mg)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B3" s="1">
         <v>56</v>
       </c>
+      <c r="C3" s="1">
+        <v>230160</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
+        <v>Dagocti (Dutasteride 0.5mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>231</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>240240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Doxycyclin 100mg</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B5" s="1">
-        <v>84</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>104580</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Enat (Vitamin E 400)</v>
+        <v>Doxycyclin 100mg</v>
       </c>
       <c r="B6" s="1">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60480</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
       </c>
       <c r="B7" s="1">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>905520</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B8" s="1">
-        <v>98</v>
+        <v>220</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3557400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ketosteril</v>
+        <v>Pharcotinex</v>
       </c>
       <c r="B9" s="1">
-        <v>82</v>
+        <v>189</v>
+      </c>
+      <c r="C9" s="1">
+        <v>782460</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Povidine 20ml</v>
       </c>
       <c r="B10" s="1">
-        <v>364</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Myonal (Eperison 50mg)</v>
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2199600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Vocfor (Lornoxicam 4mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>272888</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Pharcotinex</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B13" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Vesicare (Solifenacin succinate 5mg)</v>
-      </c>
-      <c r="B14" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Voltaren 75  (Diclofenac 75)</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2174</v>
-      </c>
-      <c r="C16" s="1">
-        <v>NaN</v>
+        <v>1092</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10793708</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
   </ignoredErrors>
 </worksheet>
 </file>